--- a/model/results/ELEC/v_mix.xlsx
+++ b/model/results/ELEC/v_mix.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13662297.88249322</v>
+        <v>13671535.86344387</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>4000000</v>
       </c>
       <c r="C3" t="n">
-        <v>12094920.59231</v>
+        <v>16337011.98402834</v>
       </c>
     </row>
     <row r="4">
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>12704541.3936951</v>
+        <v>9863452.674863417</v>
       </c>
     </row>
     <row r="5">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12632279.87223644</v>
+        <v>12368707.70337027</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13675960.18037571</v>
+        <v>13685207.39930731</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4000000</v>
+        <v>3999999.999999998</v>
       </c>
       <c r="C3" t="n">
-        <v>12111015.51290231</v>
+        <v>16357348.99601238</v>
       </c>
     </row>
     <row r="4">
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>12717245.93508881</v>
+        <v>9873316.127538292</v>
       </c>
     </row>
     <row r="5">
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12644912.15210867</v>
+        <v>12381076.41107364</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13870557.33161106</v>
+        <v>13698892.60670662</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -772,10 +772,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3999999.999999997</v>
+        <v>4000000</v>
       </c>
       <c r="C3" t="n">
-        <v>24438209.3934842</v>
+        <v>24240134.71090217</v>
       </c>
     </row>
     <row r="4">
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2047171.03544966</v>
+        <v>2020761.077772053</v>
       </c>
     </row>
     <row r="5">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12657557.06426078</v>
+        <v>12393457.48748471</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13884427.88894267</v>
+        <v>13712591.49931332</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4000000</v>
+        <v>3999999.999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>24466647.60287768</v>
+        <v>24268374.84561304</v>
       </c>
     </row>
     <row r="4">
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2049218.206485109</v>
+        <v>2022781.838849824</v>
       </c>
     </row>
     <row r="5">
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12670214.62132504</v>
+        <v>12405850.94497219</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13898312.31683161</v>
+        <v>13726304.09081263</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>4000000</v>
       </c>
       <c r="C3" t="n">
-        <v>24495114.25048057</v>
+        <v>24296643.22045867</v>
       </c>
     </row>
     <row r="4">
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2051267.424691595</v>
+        <v>2024804.620688675</v>
       </c>
     </row>
     <row r="5">
@@ -1003,7 +1003,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12682884.83594637</v>
+        <v>12418256.79591717</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13912210.62914844</v>
+        <v>13740030.39490345</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4499999.999999998</v>
+        <v>4499999.999999993</v>
       </c>
       <c r="C3" t="n">
-        <v>24023609.36473104</v>
+        <v>23824939.86367913</v>
       </c>
     </row>
     <row r="4">
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2053318.692116286</v>
+        <v>2026829.425309363</v>
       </c>
     </row>
     <row r="5">
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12695567.72078231</v>
+        <v>12430675.05271308</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1143,7 +1143,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13926122.83977759</v>
+        <v>13753770.42529835</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4499999.999999991</v>
+        <v>4500000</v>
       </c>
       <c r="C3" t="n">
-        <v>24052132.97409578</v>
+        <v>23853264.8035428</v>
       </c>
     </row>
     <row r="4">
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2055372.010808402</v>
+        <v>2028856.254734673</v>
       </c>
     </row>
     <row r="5">
@@ -1195,7 +1195,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12708263.28850309</v>
+        <v>12443105.72776579</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1239,7 +1239,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13940048.96261736</v>
+        <v>13767524.19572364</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1255,7 +1255,7 @@
         <v>4500000</v>
       </c>
       <c r="C3" t="n">
-        <v>24080685.10706986</v>
+        <v>23881618.06834636</v>
       </c>
     </row>
     <row r="4">
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2057427.38281921</v>
+        <v>2030885.110989407</v>
       </c>
     </row>
     <row r="5">
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12720971.55179159</v>
+        <v>12455548.83349356</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13953989.01157998</v>
+        <v>13781291.71991937</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4500000</v>
+        <v>4499999.999999998</v>
       </c>
       <c r="C3" t="n">
-        <v>24109265.79217693</v>
+        <v>23909999.68641469</v>
       </c>
     </row>
     <row r="4">
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2059484.810202029</v>
+        <v>2032915.996100396</v>
       </c>
     </row>
     <row r="5">
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12733692.52334338</v>
+        <v>12468004.38232705</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1431,7 +1431,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13967943.00059156</v>
+        <v>13795073.01163929</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4500000</v>
+        <v>4499999.999999998</v>
       </c>
       <c r="C3" t="n">
-        <v>24137875.0579691</v>
+        <v>23938409.68610109</v>
       </c>
     </row>
     <row r="4">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2061544.295012231</v>
+        <v>2034948.912096496</v>
       </c>
     </row>
     <row r="5">
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12746426.21586672</v>
+        <v>12480472.38670938</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9268711.526148146</v>
+        <v>9364071.235037034</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10522071.56</v>
+        <v>10665111.12333333</v>
       </c>
     </row>
     <row r="4">
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>18335837.29755555</v>
+        <v>19051035.11422221</v>
       </c>
     </row>
     <row r="5">
@@ -1623,7 +1623,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13981910.94359215</v>
+        <v>13808868.08465092</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1639,7 +1639,7 @@
         <v>7349999.999999998</v>
       </c>
       <c r="C3" t="n">
-        <v>21316512.93302707</v>
+        <v>21116848.09578719</v>
       </c>
     </row>
     <row r="4">
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2063605.839307243</v>
+        <v>2036983.861008592</v>
       </c>
     </row>
     <row r="5">
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12759172.64208259</v>
+        <v>12492952.85909609</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9277980.237674288</v>
+        <v>9373435.306272065</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10532593.63155999</v>
+        <v>10675776.23445666</v>
       </c>
     </row>
     <row r="4">
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>18354173.1348531</v>
+        <v>19070086.14933643</v>
       </c>
     </row>
     <row r="5">
@@ -1815,7 +1815,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9287258.217911966</v>
+        <v>9382808.741578342</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10543126.22519155</v>
+        <v>10686452.01069112</v>
       </c>
     </row>
     <row r="4">
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>18372527.30798794</v>
+        <v>19089156.23548575</v>
       </c>
     </row>
     <row r="5">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12818275.42672205</v>
+        <v>12913921.50091209</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>5311818.484024228</v>
+        <v>5455287.59530929</v>
       </c>
     </row>
     <row r="4">
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>18546323.80224934</v>
+        <v>19263669.35867466</v>
       </c>
     </row>
     <row r="5">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13323387.82130253</v>
+        <v>13503227.27444735</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>6055571.481238889</v>
+        <v>6325330.660956118</v>
       </c>
     </row>
     <row r="4">
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>22257076.0197048</v>
+        <v>23605871.91829095</v>
       </c>
     </row>
     <row r="5">
@@ -2103,7 +2103,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13336711.20912383</v>
+        <v>13516730.5017218</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>6061627.052720129</v>
+        <v>6331655.991617076</v>
       </c>
     </row>
     <row r="4">
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>22279333.09572451</v>
+        <v>23629477.79020925</v>
       </c>
     </row>
     <row r="5">
@@ -2199,7 +2199,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13350047.92033295</v>
+        <v>13530247.23222352</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>6067688.67977285</v>
+        <v>6337987.647608694</v>
       </c>
     </row>
     <row r="4">
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>22301612.42882022</v>
+        <v>23653107.26799944</v>
       </c>
     </row>
     <row r="5">
@@ -2295,7 +2295,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13648649.23325996</v>
+        <v>13657877.98545841</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2311,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>6402892.443460325</v>
+        <v>6475980.065259384</v>
       </c>
     </row>
     <row r="4">
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>22367798.85125007</v>
+        <v>23694314.29926785</v>
       </c>
     </row>
     <row r="5">
@@ -2347,7 +2347,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12619660.21202441</v>
+        <v>12356351.35201826</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
